--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal squamous cell carcinoma_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal squamous cell carcinoma_gen_overall.xlsx
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia, initially to solids and later to liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Progressive dysphagia is a common symptom in patients with esophageal squamous cell carcinoma, indicating obstruction or invasion of the esophagus.</t>
+          <t>Progressive dysphagia is a classic symptom of esophageal cancer, as the tumor grows and obstructs the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recent onset of symptoms</t>
+          <t>No history of smoking or alcohol use</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recent onset of symptoms may suggest a less chronic condition, which is less typical for esophageal squamous cell carcinoma that usually presents with longstanding symptoms.</t>
+          <t>The absence of these risk factors makes esophageal squamous cell carcinoma less likely.</t>
         </is>
       </c>
     </row>
@@ -489,39 +489,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss often occurs in patients with esophageal squamous cell carcinoma due to difficulty eating and malnutrition.</t>
+          <t>Weight loss is common in esophageal cancer due to difficulty swallowing and decreased nutritional intake.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of gastrointestinal reflux symptoms</t>
+          <t>Symptoms resolve with antacids</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of gastrointestinal reflux symptoms may indicate that esophageal squamous cell carcinoma is less likely, as reflux is a common precursor.</t>
+          <t>Improvement with antacids suggests gastroesophageal reflux disease rather than esophageal cancer.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Odynophagia (painful swallowing)</t>
+          <t>Odynophagia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Odynophagia can indicate the presence of a tumor in the esophagus, which is characteristic of esophageal squamous cell carcinoma.</t>
+          <t>Painful swallowing can occur due to ulceration or invasion of the tumor into surrounding tissues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal appetite</t>
+          <t>Intermittent dysphagia without progression</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal appetite contradicts the common symptom of weight loss and suggests that malignancy is less likely.</t>
+          <t>Non-progressive dysphagia is more indicative of benign conditions like esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -533,39 +533,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic cough or hoarseness may suggest invasion of surrounding structures by the tumor, which is common in esophageal squamous cell carcinoma.</t>
+          <t>These symptoms can occur if the cancer affects the recurrent laryngeal nerve or invades the trachea.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of significant weight loss</t>
+          <t>No weight loss despite dysphagia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of significant weight loss is a strong indicator against esophageal squamous cell carcinoma, as it is often associated with the disease.</t>
+          <t>Maintaining weight suggests that the dysphagia is not severe enough to cause significant nutritional compromise, which is less typical for cancer.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of tobacco and alcohol use</t>
+          <t>History of heavy smoking and alcohol use</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A history of tobacco and alcohol use significantly increases the risk of developing esophageal squamous cell carcinoma.</t>
+          <t>Both smoking and alcohol are significant risk factors for esophageal squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of esophageal cancer</t>
+          <t>Recent onset of symptoms with rapid resolution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history of esophageal cancer reduces the likelihood of esophageal squamous cell carcinoma, as genetic predisposition plays a role.</t>
+          <t>Rapid resolution of symptoms is atypical for cancer, which usually presents with persistent and worsening symptoms.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of tobacco use</t>
+          <t>History of heavy smoking</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tobacco use is a significant risk factor for esophageal squamous cell carcinoma, increasing the likelihood of developing this type of cancer.</t>
+          <t>Smoking is a significant risk factor for esophageal squamous cell carcinoma due to its carcinogenic effects on the esophageal lining.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of significant risk factors</t>
+          <t>No history of smoking or alcohol use</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of known risk factors such as tobacco use, heavy alcohol consumption, or previous cancers suggests a lower likelihood of esophageal squamous cell carcinoma.</t>
+          <t>Absence of smoking and alcohol use significantly reduces the risk of esophageal squamous cell carcinoma, as these are major risk factors.</t>
         </is>
       </c>
     </row>
@@ -640,17 +640,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heavy alcohol consumption is associated with an increased risk of esophageal squamous cell carcinoma, making it a strong indicator for the diagnosis.</t>
+          <t>Chronic alcohol use is strongly associated with esophageal squamous cell carcinoma, particularly when combined with smoking.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of chronic gastrointestinal conditions</t>
+          <t>History of Barrett's esophagus</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of chronic conditions like GERD or Barrett's esophagus reduces the risk of developing esophageal squamous cell carcinoma.</t>
+          <t>Barrett's esophagus is more commonly associated with esophageal adenocarcinoma rather than squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -662,61 +662,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with a history of head and neck cancers are at a higher risk for developing esophageal squamous cell carcinoma due to shared risk factors.</t>
+          <t>Patients with a history of head and neck cancers have a higher risk of developing esophageal squamous cell carcinoma due to shared risk factors and field cancerization.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous surgeries related to the esophagus</t>
+          <t>History of gastroesophageal reflux disease (GERD) without dysplasia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of surgical history related to the esophagus may indicate a lower risk for esophageal malignancies.</t>
+          <t>GERD is more commonly linked to esophageal adenocarcinoma, and the absence of dysplasia reduces the likelihood of squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chronic gastroesophageal reflux disease (GERD)</t>
+          <t>History of achalasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic GERD can lead to Barrett's esophagus, which increases the risk of esophageal cancer, including squamous cell carcinoma.</t>
+          <t>Achalasia is a condition that increases the risk of esophageal squamous cell carcinoma due to chronic irritation and stasis of food in the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Current medications do not include known carcinogens</t>
+          <t>No history of head and neck cancer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>If current medications do not include those associated with increased cancer risk, it supports the absence of esophageal squamous cell carcinoma.</t>
+          <t>The absence of a history of head and neck cancer reduces the risk of esophageal squamous cell carcinoma, as these cancers share common risk factors.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of radiation therapy to the chest or neck</t>
+          <t>History of Plummer-Vinson syndrome</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prior radiation therapy in these areas is a known risk factor for developing esophageal squamous cell carcinoma.</t>
+          <t>Plummer-Vinson syndrome is associated with an increased risk of esophageal squamous cell carcinoma due to iron deficiency and esophageal web formation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of esophageal cancer</t>
+          <t>No history of achalasia or Plummer-Vinson syndrome</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history of esophageal cancer suggests a lower genetic predisposition to developing esophageal squamous cell carcinoma.</t>
+          <t>The absence of achalasia or Plummer-Vinson syndrome reduces the risk of esophageal squamous cell carcinoma, as these conditions are known risk factors.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of tobacco use</t>
+          <t>Heavy tobacco use</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tobacco use is a significant risk factor for esophageal squamous cell carcinoma, increasing the likelihood of developing the disease.</t>
+          <t>Tobacco use is a well-established risk factor for esophageal squamous cell carcinoma, significantly increasing the likelihood of developing the disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of tobacco or alcohol use</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of tobacco and heavy alcohol use significantly reduces the risk of developing esophageal squamous cell carcinoma.</t>
+          <t>Not using tobacco significantly reduces the risk of esophageal squamous cell carcinoma, as smoking is a major risk factor.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of heavy alcohol consumption</t>
+          <t>Heavy alcohol consumption</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heavy alcohol consumption is associated with an increased risk of esophageal squamous cell carcinoma, particularly in individuals who also use tobacco.</t>
+          <t>Chronic alcohol consumption is strongly associated with esophageal squamous cell carcinoma, particularly when combined with tobacco use.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Healthy dietary habits with low risk factors</t>
+          <t>Abstains from alcohol</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A diet low in risk factors associated with esophageal cancer, such as avoiding hot beverages and processed foods, decreases the likelihood of the disease.</t>
+          <t>Avoiding alcohol consumption lowers the risk of esophageal squamous cell carcinoma, especially when not combined with tobacco use.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chronic exposure to certain dietary factors (e.g., hot beverages, pickled foods)</t>
+          <t>Low socioeconomic status</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain dietary habits, such as consuming very hot beverages or pickled foods, have been linked to a higher incidence of esophageal squamous cell carcinoma.</t>
+          <t>Lower socioeconomic status is linked to higher rates of esophageal squamous cell carcinoma, possibly due to associated lifestyle factors such as diet and access to healthcare.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No family history of esophageal cancer</t>
+          <t>High socioeconomic status</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of a family history of esophageal cancer suggests a lower genetic predisposition to developing esophageal squamous cell carcinoma.</t>
+          <t>Higher socioeconomic status is generally associated with a lower risk of esophageal squamous cell carcinoma due to better access to healthcare and healthier lifestyle choices.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of esophageal cancer</t>
+          <t>Diet low in fruits and vegetables</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of esophageal cancer can indicate a genetic predisposition, increasing the risk of developing esophageal squamous cell carcinoma.</t>
+          <t>A diet lacking in fruits and vegetables is associated with an increased risk of esophageal squamous cell carcinoma due to reduced intake of protective nutrients.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engagement in regular physical activity</t>
+          <t>Diet rich in fruits and vegetables</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regular physical activity is associated with a lower risk of various cancers, including esophageal squamous cell carcinoma.</t>
+          <t>A diet high in fruits and vegetables is protective against esophageal squamous cell carcinoma due to the presence of beneficial nutrients.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of certain medical conditions (e.g., achalasia, lye ingestion)</t>
+          <t>Family history of esophageal cancer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conditions like achalasia or previous lye ingestion can lead to chronic irritation of the esophagus, raising the risk for esophageal squamous cell carcinoma.</t>
+          <t>A family history of esophageal cancer can indicate a genetic predisposition, increasing the likelihood of developing esophageal squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of chronic esophageal conditions</t>
+          <t>No family history of esophageal cancer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of chronic esophageal conditions that predispose individuals to cancer reduces the likelihood of esophageal squamous cell carcinoma.</t>
+          <t>Lack of a family history of esophageal cancer suggests a lower genetic predisposition to developing esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Palpable cervical lymphadenopathy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unintentional weight loss is a common finding in patients with esophageal squamous cell carcinoma due to difficulty swallowing and decreased appetite.</t>
+          <t>Cervical lymphadenopathy can occur due to metastasis from esophageal squamous cell carcinoma, indicating advanced disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal weight</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs may indicate that there is no significant systemic illness, making esophageal squamous cell carcinoma less likely.</t>
+          <t>Maintaining normal weight is less common in esophageal squamous cell carcinoma due to dysphagia and cancer cachexia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Cachexia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia is a hallmark symptom of esophageal cancer, indicating obstruction or narrowing of the esophagus.</t>
+          <t>Significant weight loss and muscle wasting are common in advanced esophageal squamous cell carcinoma due to difficulty swallowing and cancer-related metabolic changes.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of abdominal tenderness</t>
+          <t>Absence of cervical lymphadenopathy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of abdominal tenderness suggests that there is no significant intra-abdominal pathology, which may argue against esophageal cancer.</t>
+          <t>The absence of cervical lymphadenopathy reduces the likelihood of metastatic esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cachexia (muscle wasting)</t>
+          <t>Hoarseness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cachexia is often observed in cancer patients, including those with esophageal squamous cell carcinoma, due to metabolic changes and reduced food intake.</t>
+          <t>Hoarseness can occur if the recurrent laryngeal nerve is affected by the tumor, which is more specific to esophageal squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal physical exam findings</t>
+          <t>Normal voice</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal physical exam with no significant findings can indicate that esophageal squamous cell carcinoma is unlikely.</t>
+          <t>A normal voice suggests that the recurrent laryngeal nerve is not affected, which is less consistent with esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lymphadenopathy (swollen lymph nodes)</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lymphadenopathy can indicate metastasis or local spread of esophageal squamous cell carcinoma, making it a significant finding.</t>
+          <t>Difficulty swallowing is a hallmark symptom of esophageal cancer, often due to tumor obstruction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of malnutrition</t>
+          <t>No dysphagia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of malnutrition suggests that the patient is maintaining adequate nutritional status, which is less common in those with esophageal cancer.</t>
+          <t>The absence of difficulty swallowing significantly reduces the likelihood of esophageal cancer.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Tracheoesophageal fistula</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anemia can occur in patients with esophageal cancer due to chronic blood loss or nutritional deficiencies, supporting the diagnosis.</t>
+          <t>This is a rare but serious complication of esophageal squamous cell carcinoma, indicating direct invasion of the trachea.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No palpable masses</t>
+          <t>Normal respiratory examination</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of palpable masses during a physical exam reduces the likelihood of a significant tumor, including esophageal squamous cell carcinoma.</t>
+          <t>A normal respiratory exam suggests no tracheal involvement, which is less consistent with advanced esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Endoscopic biopsy showing malignant squamous cells</t>
+          <t>Endoscopic biopsy showing squamous cell carcinoma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is definitive for diagnosing Esophageal squamous cell carcinoma, as the presence of malignant cells confirms the cancer diagnosis.</t>
+          <t>Direct histological evidence of squamous cell carcinoma in the esophagus is definitive for diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal endoscopic findings</t>
+          <t>Endoscopic biopsy showing no malignancy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal findings during endoscopy suggest that there is no malignancy present in the esophagus.</t>
+          <t>A biopsy that shows no malignancy is strong evidence against the presence of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Imaging showing esophageal mass or thickening</t>
+          <t>Barium swallow showing irregular narrowing of the esophagus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of a mass or thickening in the esophagus on imaging studies is highly suggestive of Esophageal squamous cell carcinoma.</t>
+          <t>Irregular narrowing on a barium swallow is highly suggestive of a malignant process such as squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative biopsy results</t>
+          <t>Barium swallow showing smooth, concentric narrowing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative biopsy result indicates that there are no malignant cells present, arguing against Esophageal squamous cell carcinoma.</t>
+          <t>Smooth, concentric narrowing is more indicative of a benign stricture rather than a malignant process.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elevated levels of squamous cell carcinoma antigen (SCC antigen)</t>
+          <t>CT scan showing esophageal wall thickening with lymphadenopathy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elevated SCC antigen levels can indicate the presence of squamous cell carcinoma, supporting the diagnosis.</t>
+          <t>CT findings of esophageal wall thickening and lymphadenopathy are indicative of an invasive esophageal cancer.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal imaging results</t>
+          <t>CT scan showing no esophageal wall thickening or lymphadenopathy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Imaging that shows no abnormalities in the esophagus reduces the likelihood of Esophageal squamous cell carcinoma.</t>
+          <t>Absence of esophageal wall thickening and lymphadenopathy on CT scan suggests a lower likelihood of esophageal cancer.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Positive PET scan for hypermetabolic activity in the esophagus</t>
+          <t>PET scan showing increased uptake in the esophagus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A PET scan showing hypermetabolic activity in the esophagus is indicative of malignancy, including Esophageal squamous cell carcinoma.</t>
+          <t>Increased metabolic activity on PET scan in the esophagus is consistent with a malignant process like squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative results for tumor markers associated with squamous cell carcinoma</t>
+          <t>PET scan showing no increased uptake in the esophagus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Negative tumor marker tests suggest that squamous cell carcinoma is unlikely to be present.</t>
+          <t>Lack of increased metabolic activity on PET scan in the esophagus reduces the likelihood of a malignant process.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Histological evidence of keratinization in biopsy</t>
+          <t>Endoscopic ultrasound showing hypoechoic mass in the esophagus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Keratinization in the histological examination of esophageal tissue is characteristic of squamous cell carcinoma.</t>
+          <t>A hypoechoic mass on endoscopic ultrasound suggests a malignant lesion such as squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Presence of benign esophageal conditions on imaging</t>
+          <t>Endoscopic ultrasound showing no mass or abnormality</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Imaging showing benign conditions, such as reflux esophagitis, suggests an alternative diagnosis rather than Esophageal squamous cell carcinoma.</t>
+          <t>The absence of a mass or abnormality on endoscopic ultrasound argues against the presence of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
